--- a/Translation Script/Troops.xlsx
+++ b/Translation Script/Troops.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="665">
   <si>
     <t>ルナ初戦ボッコテスト</t>
   </si>
@@ -2123,7 +2123,13 @@
     <t>0:吐息 1:舐め 2:しゃぶり 3:もぐもぐ</t>
   </si>
   <si>
+    <t>0:Breath 1:Licking 2:Sucking 3:Munch munch</t>
+  </si>
+  <si>
     <t>摘まみ上げられてしまった・・・！</t>
+  </si>
+  <si>
+    <t>You were lifted up...!</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;なに食べられそうなのに勃起してるの？
@@ -2131,21 +2137,43 @@
 そういうの好きなの？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're getting turned on even though you're
+about to be eaten? Hmmm...♥
+Are you enjoying this? Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;早く逃げないと食べちゃうわよー？
 あはははは♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You know if you don't escape, you'll be eaten, right?
+Ahahaha♥</t>
+  </si>
+  <si>
     <t>なんとかしてこの状況から抜け出さないと・・・！</t>
   </si>
   <si>
+    <t>I've gotta get out of this mess somehow...!</t>
+  </si>
+  <si>
     <t>戦闘開始</t>
   </si>
   <si>
+    <t>Start battle</t>
+  </si>
+  <si>
     <t>説明</t>
+  </si>
+  <si>
+    <t>Explanation</t>
   </si>
   <si>
     <t>ミニマムバトルでは通常のスキルが使用できず
 コマンドが特殊なものに変更されます。</t>
+  </si>
+  <si>
+    <t>Normal skills may not be used during shrunken battles.
+Special skills are available.</t>
   </si>
   <si>
     <t>『暴れる』『わめく』『もがく』などの行動で
@@ -2153,13 +2181,27 @@
 精力が0になると射精して敗北です。</t>
   </si>
   <si>
+    <t>Using 『Rampage』, 『Screaming』, and 『Struggling』,
+you can damage your opponent, and free yourself.
+If energy reaches 0, you'll ejaculate and be defeated.</t>
+  </si>
+  <si>
     <t>また、ターン経過によって敵の行動が激しくなります。
 例）
 吐息吹きかけ→舐める→咥える→口に含む</t>
   </si>
   <si>
+    <t>The enemy's actions will grow more intense as
+the turns progress, as so:
+Breathing→Licking→Sucking→Put in mouth</t>
+  </si>
+  <si>
     <t>\C[14]『もがく』\C[0]スキルを使用することで
 敵の行動を1段階戻すことが出来ます。</t>
+  </si>
+  <si>
+    <t>By using \C[14]『Struggle』\C[0], you can reverse
+your enemy's action by one stage.</t>
   </si>
   <si>
     <t>\C[14]『暴れる』\C[0]：ダメージを与える　
@@ -2167,16 +2209,33 @@
 \C[14]『もがく』\C[0]：ダメージ＋敵の行動を1段階戻す</t>
   </si>
   <si>
+    <t>\C[14]『Rampage』\C[0]： Deals damage
+\C[14]『Scream』\C[0]：Damage + Lower attack
+\C[14]『Struggle』\C[0]：Damage + Reverse enemy actions</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そんなに食べられたくないの？
 必死に暴れちゃって！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You don't want to be eaten like this, do you?
+Struggle with all your might!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーもう。
 分かった分かった！</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;F-fine.
+Enough, enough!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;大人しくしなさいよ。
 無駄な抵抗しちゃって全く。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Just behave yourself.
+Your struggles are all for nothing.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;もう抵抗しないの？
@@ -2184,13 +2243,27 @@
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Are you done struggling?
+Then, may I eat you now?
+Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;お人形さんみたいに小さな身体♥
 ほぉら♥淫魔の吐息を吹きかけてあげる♥
 はぁ～～・・・♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Your body is so tiny, like a doll♥
+Hoora♥ Have a puff of succubus breath♥
+Haaaah～～...♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;味見しちゃお♥
 れろぉ・・・♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Let's have a taste♥
+Lick...♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;身体ごとフェラしてあげる♥
@@ -2198,9 +2271,19 @@
 じゅるるる♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I'll give your whole body a blowjob♥
+I wonder if you can endure.
+Sluuuuurp♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;逃げないの？
 じゃあ口の中でぐちゅぐちゅにしてあげる♥
 あーん♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You haven't escaped yet?
+Then I'll have you squirt inside my mouth♥
+Ahhhhn♥</t>
   </si>
   <si>
     <t>0:手コキ 1:キス 2:胸見せ 3:尻コキ</t>
@@ -2818,7 +2901,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B613"/>
+  <dimension ref="A1:C613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2826,7 +2909,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2850,7 +2933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2866,7 +2949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2882,7 +2965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +2981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2906,7 +2989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2914,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2922,7 +3005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2930,7 +3013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2938,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2946,7 +3029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2954,7 +3037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2962,7 +3045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2970,7 +3053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2978,7 +3061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2986,7 +3069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2994,7 +3077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3002,7 +3085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3010,7 +3093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3018,7 +3101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3026,7 +3109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3034,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3042,7 +3125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3050,7 +3133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3058,7 +3141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3074,7 +3157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3082,7 +3165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3090,7 +3173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3098,7 +3181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3106,7 +3189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3114,7 +3197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3122,7 +3205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3130,7 +3213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3138,7 +3221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3146,7 +3229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3154,7 +3237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3162,7 +3245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3170,7 +3253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3178,7 +3261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3186,7 +3269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3194,7 +3277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3202,7 +3285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3210,7 +3293,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3218,7 +3301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3226,7 +3309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3234,7 +3317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3242,7 +3325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3250,7 +3333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3258,7 +3341,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3266,7 +3349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3274,7 +3357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3282,7 +3365,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3290,7 +3373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3298,7 +3381,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3306,7 +3389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3314,7 +3397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3322,7 +3405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3330,7 +3413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3338,7 +3421,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3346,7 +3429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3354,7 +3437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3362,7 +3445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3370,7 +3453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3378,7 +3461,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3386,7 +3469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3394,7 +3477,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3402,7 +3485,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3410,7 +3493,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3418,7 +3501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3426,7 +3509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3434,7 +3517,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3442,7 +3525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3450,7 +3533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3458,7 +3541,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3466,7 +3549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3474,7 +3557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3482,7 +3565,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3490,7 +3573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3498,7 +3581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3506,7 +3589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3514,7 +3597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3522,7 +3605,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3530,7 +3613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3538,7 +3621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3546,7 +3629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3554,7 +3637,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3562,7 +3645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3570,7 +3653,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3578,7 +3661,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3586,7 +3669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3594,7 +3677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3602,7 +3685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3610,7 +3693,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3618,7 +3701,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3626,7 +3709,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3634,7 +3717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3642,7 +3725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3650,7 +3733,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3658,7 +3741,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3666,7 +3749,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3674,7 +3757,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3682,7 +3765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3690,7 +3773,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3698,7 +3781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3706,7 +3789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3714,12 +3797,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3727,7 +3810,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3735,7 +3818,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3743,7 +3826,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3751,7 +3834,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3759,7 +3842,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3767,7 +3850,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3775,7 +3858,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3783,7 +3866,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3791,107 +3874,107 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3899,7 +3982,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3907,7 +3990,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3915,12 +3998,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3928,7 +4011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3936,7 +4019,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3944,7 +4027,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3952,7 +4035,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3960,7 +4043,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3968,7 +4051,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3976,7 +4059,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3984,7 +4067,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3992,7 +4075,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4000,7 +4083,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4008,7 +4091,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4016,7 +4099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4024,7 +4107,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4032,7 +4115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4040,7 +4123,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4048,22 +4131,22 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4071,7 +4154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4079,7 +4162,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4087,7 +4170,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4095,7 +4178,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4103,7 +4186,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4111,7 +4194,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4119,7 +4202,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4127,7 +4210,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4135,7 +4218,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4143,7 +4226,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4151,7 +4234,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4159,7 +4242,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4167,7 +4250,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4175,7 +4258,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4183,7 +4266,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4191,7 +4274,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4199,7 +4282,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4207,7 +4290,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4215,7 +4298,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4223,7 +4306,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4231,7 +4314,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4239,7 +4322,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4247,7 +4330,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4255,7 +4338,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4263,12 +4346,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4276,7 +4359,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4284,7 +4367,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4292,7 +4375,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4300,7 +4383,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4308,7 +4391,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4316,7 +4399,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4324,7 +4407,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4332,7 +4415,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4340,7 +4423,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4348,7 +4431,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4356,7 +4439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4364,7 +4447,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4372,7 +4455,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4380,7 +4463,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4388,7 +4471,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4396,7 +4479,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4404,7 +4487,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4412,7 +4495,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4420,7 +4503,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4428,7 +4511,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4436,7 +4519,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4444,7 +4527,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4452,7 +4535,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4460,7 +4543,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4468,7 +4551,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4476,7 +4559,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4484,7 +4567,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4492,7 +4575,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4500,7 +4583,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4508,7 +4591,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4516,12 +4599,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4529,7 +4612,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4537,7 +4620,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4545,7 +4628,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4553,7 +4636,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4561,7 +4644,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -4569,7 +4652,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4577,7 +4660,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -4585,7 +4668,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -4593,7 +4676,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -4601,7 +4684,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -4609,7 +4692,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4617,7 +4700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -4625,7 +4708,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -4633,7 +4716,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -4641,7 +4724,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4649,7 +4732,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4657,7 +4740,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -4665,7 +4748,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4673,7 +4756,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4681,7 +4764,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -4689,7 +4772,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -4697,7 +4780,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -4705,7 +4788,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4713,7 +4796,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -4721,12 +4804,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4734,7 +4817,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4742,7 +4825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4750,7 +4833,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4758,7 +4841,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4766,7 +4849,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4774,7 +4857,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4782,7 +4865,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4790,7 +4873,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4798,7 +4881,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4806,7 +4889,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4814,7 +4897,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4822,7 +4905,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4830,7 +4913,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -4838,7 +4921,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -4846,7 +4929,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -4854,7 +4937,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4862,7 +4945,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4870,7 +4953,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4878,7 +4961,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4886,7 +4969,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4894,7 +4977,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4902,7 +4985,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4910,7 +4993,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4918,7 +5001,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4926,7 +5009,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4934,7 +5017,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4942,7 +5025,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4950,7 +5033,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4958,7 +5041,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4966,7 +5049,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4974,7 +5057,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4982,7 +5065,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4990,7 +5073,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4998,7 +5081,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -5006,7 +5089,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -5014,7 +5097,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -5022,7 +5105,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -5030,7 +5113,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -5038,7 +5121,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -5046,7 +5129,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -5054,7 +5137,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -5062,7 +5145,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -5070,7 +5153,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -5078,7 +5161,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -5086,7 +5169,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -5094,7 +5177,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -5102,7 +5185,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -5110,7 +5193,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -5118,7 +5201,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -5126,7 +5209,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -5134,7 +5217,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -5142,7 +5225,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -5150,7 +5233,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -5158,7 +5241,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -5166,7 +5249,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -5174,7 +5257,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -5182,7 +5265,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -5190,7 +5273,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -5198,7 +5281,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -5206,7 +5289,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -5214,7 +5297,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -5222,7 +5305,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -5230,7 +5313,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5238,7 +5321,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5246,7 +5329,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5254,7 +5337,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5262,7 +5345,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5270,7 +5353,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5278,7 +5361,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5286,7 +5369,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5294,7 +5377,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5302,7 +5385,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5310,7 +5393,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5318,7 +5401,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5326,7 +5409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -5334,7 +5417,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -5342,7 +5425,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -5350,7 +5433,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -5358,7 +5441,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -5366,7 +5449,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -5374,7 +5457,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -5382,7 +5465,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -5390,7 +5473,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -5398,7 +5481,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -5406,7 +5489,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -5414,7 +5497,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -5422,7 +5505,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -5430,7 +5513,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -5438,7 +5521,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -5446,7 +5529,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -5454,7 +5537,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -5462,7 +5545,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -5470,7 +5553,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -5478,7 +5561,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -5486,7 +5569,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -5494,7 +5577,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -5502,7 +5585,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -5510,7 +5593,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -5518,7 +5601,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5526,7 +5609,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -5534,7 +5617,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5542,7 +5625,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -5550,7 +5633,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -5558,7 +5641,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -5566,7 +5649,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -5574,7 +5657,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -5582,7 +5665,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -5590,7 +5673,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -5598,7 +5681,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -5606,7 +5689,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -5614,7 +5697,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -5622,7 +5705,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -5630,7 +5713,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -5638,7 +5721,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -5646,7 +5729,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -5654,7 +5737,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -5662,7 +5745,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -5670,7 +5753,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -5678,7 +5761,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -5686,7 +5769,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -5694,7 +5777,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -5702,7 +5785,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -5710,7 +5793,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -5718,7 +5801,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -5726,7 +5809,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -5734,7 +5817,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -5742,7 +5825,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -5750,7 +5833,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -5758,7 +5841,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -5766,7 +5849,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -5774,7 +5857,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -5782,7 +5865,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -5790,7 +5873,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -5798,7 +5881,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -5806,7 +5889,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -5814,7 +5897,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -5822,7 +5905,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -5830,7 +5913,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -5838,7 +5921,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -5846,7 +5929,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -5854,7 +5937,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -5862,7 +5945,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -5870,7 +5953,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -5878,7 +5961,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -5886,7 +5969,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>397</v>
       </c>
@@ -5894,7 +5977,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -5902,7 +5985,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -5910,7 +5993,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>400</v>
       </c>
@@ -5918,7 +6001,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -5926,7 +6009,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -5934,7 +6017,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>403</v>
       </c>
@@ -5942,7 +6025,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>404</v>
       </c>
@@ -5950,7 +6033,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>405</v>
       </c>
@@ -5958,7 +6041,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>406</v>
       </c>
@@ -5966,7 +6049,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>407</v>
       </c>
@@ -5974,7 +6057,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>408</v>
       </c>
@@ -5982,7 +6065,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>409</v>
       </c>
@@ -5990,7 +6073,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>410</v>
       </c>
@@ -5998,7 +6081,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>411</v>
       </c>
@@ -6006,7 +6089,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>412</v>
       </c>
@@ -6014,7 +6097,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>413</v>
       </c>
@@ -6022,7 +6105,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>414</v>
       </c>
@@ -6030,7 +6113,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>415</v>
       </c>
@@ -6038,7 +6121,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>416</v>
       </c>
@@ -6046,7 +6129,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>417</v>
       </c>
@@ -6054,7 +6137,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>418</v>
       </c>
@@ -6062,7 +6145,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>419</v>
       </c>
@@ -6070,7 +6153,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>420</v>
       </c>
@@ -6078,7 +6161,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>421</v>
       </c>
@@ -6086,7 +6169,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>423</v>
       </c>
@@ -6094,7 +6177,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>425</v>
       </c>
@@ -6102,7 +6185,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -6110,7 +6193,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>429</v>
       </c>
@@ -6118,7 +6201,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>430</v>
       </c>
@@ -6126,7 +6209,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>431</v>
       </c>
@@ -6134,7 +6217,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>433</v>
       </c>
@@ -6142,7 +6225,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>434</v>
       </c>
@@ -6150,7 +6233,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>436</v>
       </c>
@@ -6158,7 +6241,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>437</v>
       </c>
@@ -6166,7 +6249,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>439</v>
       </c>
@@ -6174,7 +6257,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>441</v>
       </c>
@@ -6182,7 +6265,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>442</v>
       </c>
@@ -6190,7 +6273,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>443</v>
       </c>
@@ -6198,7 +6281,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>445</v>
       </c>
@@ -6206,7 +6289,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>447</v>
       </c>
@@ -6214,7 +6297,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>449</v>
       </c>
@@ -6222,7 +6305,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>451</v>
       </c>
@@ -6230,7 +6313,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>453</v>
       </c>
@@ -6238,7 +6321,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>454</v>
       </c>
@@ -6246,7 +6329,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>456</v>
       </c>
@@ -6254,7 +6337,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>458</v>
       </c>
@@ -6262,7 +6345,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>460</v>
       </c>
@@ -6270,17 +6353,17 @@
         <v>460</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>463</v>
       </c>
@@ -6288,7 +6371,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>464</v>
       </c>
@@ -6296,7 +6379,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>466</v>
       </c>
@@ -6304,7 +6387,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -6312,7 +6395,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -6320,7 +6403,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>472</v>
       </c>
@@ -6328,7 +6411,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>474</v>
       </c>
@@ -6336,7 +6419,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>476</v>
       </c>
@@ -6344,7 +6427,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>478</v>
       </c>
@@ -6352,7 +6435,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>480</v>
       </c>
@@ -6360,7 +6443,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>481</v>
       </c>
@@ -6368,7 +6451,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>483</v>
       </c>
@@ -6376,7 +6459,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>484</v>
       </c>
@@ -6384,7 +6467,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>485</v>
       </c>
@@ -6392,7 +6475,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>486</v>
       </c>
@@ -6400,7 +6483,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>487</v>
       </c>
@@ -6408,7 +6491,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
         <v>488</v>
       </c>
@@ -6416,7 +6499,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>489</v>
       </c>
@@ -6424,7 +6507,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>490</v>
       </c>
@@ -6432,7 +6515,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>491</v>
       </c>
@@ -6440,7 +6523,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>492</v>
       </c>
@@ -6448,7 +6531,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
         <v>493</v>
       </c>
@@ -6456,7 +6539,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>494</v>
       </c>
@@ -6464,7 +6547,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
         <v>495</v>
       </c>
@@ -6472,7 +6555,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>496</v>
       </c>
@@ -6480,7 +6563,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>498</v>
       </c>
@@ -6488,7 +6571,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>500</v>
       </c>
@@ -6496,7 +6579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
         <v>501</v>
       </c>
@@ -6504,7 +6587,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
         <v>502</v>
       </c>
@@ -6512,7 +6595,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
         <v>503</v>
       </c>
@@ -6520,7 +6603,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
         <v>504</v>
       </c>
@@ -6528,7 +6611,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
         <v>505</v>
       </c>
@@ -6536,7 +6619,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
         <v>506</v>
       </c>
@@ -6544,7 +6627,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
         <v>507</v>
       </c>
@@ -6552,7 +6635,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
         <v>508</v>
       </c>
@@ -6560,7 +6643,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
         <v>509</v>
       </c>
@@ -6568,7 +6651,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
         <v>510</v>
       </c>
@@ -6576,7 +6659,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
         <v>511</v>
       </c>
@@ -6584,7 +6667,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
         <v>512</v>
       </c>
@@ -6592,7 +6675,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
         <v>513</v>
       </c>
@@ -6600,7 +6683,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
         <v>514</v>
       </c>
@@ -6608,7 +6691,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
         <v>515</v>
       </c>
@@ -6616,7 +6699,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
         <v>516</v>
       </c>
@@ -6624,7 +6707,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
         <v>517</v>
       </c>
@@ -6632,7 +6715,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
         <v>518</v>
       </c>
@@ -6640,7 +6723,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
         <v>519</v>
       </c>
@@ -6648,7 +6731,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
         <v>520</v>
       </c>
@@ -6656,7 +6739,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
         <v>521</v>
       </c>
@@ -6664,7 +6747,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
         <v>522</v>
       </c>
@@ -6672,7 +6755,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>523</v>
       </c>
@@ -6680,7 +6763,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
         <v>524</v>
       </c>
@@ -6688,7 +6771,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
         <v>525</v>
       </c>
@@ -6696,7 +6779,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
         <v>526</v>
       </c>
@@ -6704,7 +6787,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
         <v>527</v>
       </c>
@@ -6712,7 +6795,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
         <v>528</v>
       </c>
@@ -6720,7 +6803,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
         <v>529</v>
       </c>
@@ -6728,7 +6811,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
         <v>530</v>
       </c>
@@ -6736,7 +6819,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
         <v>531</v>
       </c>
@@ -6744,7 +6827,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
         <v>532</v>
       </c>
@@ -6752,7 +6835,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
         <v>533</v>
       </c>
@@ -6760,7 +6843,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
         <v>534</v>
       </c>
@@ -6768,7 +6851,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
         <v>535</v>
       </c>
@@ -6776,7 +6859,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>536</v>
       </c>
@@ -6784,7 +6867,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
         <v>537</v>
       </c>
@@ -6792,7 +6875,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
         <v>538</v>
       </c>
@@ -6800,7 +6883,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
         <v>539</v>
       </c>
@@ -6808,7 +6891,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
         <v>540</v>
       </c>
@@ -6816,7 +6899,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
         <v>541</v>
       </c>
@@ -6824,7 +6907,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
         <v>542</v>
       </c>
@@ -6832,7 +6915,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
         <v>544</v>
       </c>
@@ -6840,7 +6923,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
         <v>545</v>
       </c>
@@ -6848,7 +6931,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
         <v>546</v>
       </c>
@@ -6856,7 +6939,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
         <v>547</v>
       </c>
@@ -6864,7 +6947,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:3">
       <c r="A517" t="s">
         <v>548</v>
       </c>
@@ -6872,7 +6955,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
         <v>549</v>
       </c>
@@ -6880,7 +6963,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:3">
       <c r="A519" t="s">
         <v>550</v>
       </c>
@@ -6888,7 +6971,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:3">
       <c r="A520" t="s">
         <v>551</v>
       </c>
@@ -6896,7 +6979,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:3">
       <c r="A521" t="s">
         <v>552</v>
       </c>
@@ -6904,7 +6987,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:3">
       <c r="A522" t="s">
         <v>553</v>
       </c>
@@ -6912,7 +6995,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:3">
       <c r="A523" t="s">
         <v>554</v>
       </c>
@@ -6920,7 +7003,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:3">
       <c r="A524" t="s">
         <v>555</v>
       </c>
@@ -6928,7 +7011,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:3">
       <c r="A525" t="s">
         <v>556</v>
       </c>
@@ -6936,555 +7019,615 @@
         <v>556</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:3">
       <c r="A526" t="s">
         <v>557</v>
       </c>
       <c r="B526" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="527" spans="1:2">
+      <c r="C526" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B527" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
+        <v>559</v>
+      </c>
+      <c r="C527" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B528" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
+        <v>561</v>
+      </c>
+      <c r="C528" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B529" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
+        <v>563</v>
+      </c>
+      <c r="C529" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B530" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2">
+        <v>565</v>
+      </c>
+      <c r="C530" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B531" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2">
+        <v>567</v>
+      </c>
+      <c r="C531" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B532" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
+        <v>569</v>
+      </c>
+      <c r="C532" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B533" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2">
+        <v>571</v>
+      </c>
+      <c r="C533" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B534" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
+        <v>573</v>
+      </c>
+      <c r="C534" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B535" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2">
+        <v>575</v>
+      </c>
+      <c r="C535" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B536" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2">
+        <v>577</v>
+      </c>
+      <c r="C536" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
       <c r="A537" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B537" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2">
+        <v>579</v>
+      </c>
+      <c r="C537" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B538" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2">
+        <v>581</v>
+      </c>
+      <c r="C538" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B539" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2">
+        <v>583</v>
+      </c>
+      <c r="C539" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
       <c r="A540" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="B540" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2">
+        <v>585</v>
+      </c>
+      <c r="C540" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
       <c r="A541" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="B541" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2">
+        <v>587</v>
+      </c>
+      <c r="C541" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="B542" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2">
+        <v>589</v>
+      </c>
+      <c r="C542" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="B543" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2">
+        <v>591</v>
+      </c>
+      <c r="C543" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
       <c r="A544" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="B544" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2">
+        <v>593</v>
+      </c>
+      <c r="C544" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
       <c r="A545" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="B545" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2">
+        <v>595</v>
+      </c>
+      <c r="C545" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
       <c r="A546" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
       <c r="A547" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
       <c r="A548" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
       <c r="A549" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
       <c r="A550" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
       <c r="A551" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
       <c r="A552" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
       <c r="A553" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
       <c r="A554" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
       <c r="A555" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
       <c r="A556" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
       <c r="A557" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
       <c r="A558" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
       <c r="A559" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
       <c r="A560" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
       <c r="A564" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
       <c r="A567" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
       <c r="A568" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
       <c r="A570" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
       <c r="A571" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
       <c r="A572" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
       <c r="A573" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
       <c r="A574" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
       <c r="A575" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
       <c r="A576" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
       <c r="A577" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
       <c r="A578" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
       <c r="A579" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
       <c r="A580" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
       <c r="A581" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
       <c r="A582" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
       <c r="A583" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
       <c r="A584" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
       <c r="A585" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
       <c r="A586" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
       <c r="A587" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
       <c r="A588" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
       <c r="A589" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
       <c r="A590" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
       <c r="A591" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
       <c r="A592" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
       <c r="A593" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
       <c r="A594" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
       <c r="A595" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
       <c r="A596" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
       <c r="A597" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="B597" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
       <c r="A598" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="B598" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
       <c r="A599" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="B599" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
       <c r="A600" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B600" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
       <c r="A601" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="B601" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
       <c r="A602" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="B602" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
       <c r="A603" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="B603" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
       <c r="A604" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="B604" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
       <c r="A605" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="B605" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
       <c r="A606" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="B606" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
       <c r="A607" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="B607" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
       <c r="A608" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="B608" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
       <c r="A609" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="B609" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
       <c r="A610" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="B610" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
       <c r="A611" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="B611" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
       <c r="A612" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="B612" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
       <c r="A613" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="B613" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
